--- a/data/trans_camb/P11_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P11_R2-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>10.53619146668517</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>19.31522273889822</v>
+        <v>19.31522273889823</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>7.306166445551654</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.754135788173584</v>
+        <v>1.533659745790127</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2497871468317966</v>
+        <v>0.06123792636843626</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.293165165914395</v>
+        <v>8.126519533161897</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.643414718236578</v>
+        <v>6.657852490561074</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.120951052024338</v>
+        <v>7.725091319456371</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>16.63061713788185</v>
+        <v>16.68088294465927</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.379747561227429</v>
+        <v>5.451871328005905</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.972602779969161</v>
+        <v>5.115602860121695</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.75044676989459</v>
+        <v>13.98120927198681</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.070213490199826</v>
+        <v>6.899175840461978</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.310518261002686</v>
+        <v>5.522573587858988</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.93558933875275</v>
+        <v>15.04882674353872</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.05209964304341</v>
+        <v>12.02480092249395</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.52232951564925</v>
+        <v>13.70139662041073</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.16241479957406</v>
+        <v>22.10298207084778</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.076543849721814</v>
+        <v>9.174641859696978</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.292205560589615</v>
+        <v>9.270631284019823</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>18.1111595352608</v>
+        <v>18.39699963766371</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>1.164092626327475</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>2.134045156384975</v>
+        <v>2.134045156384976</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.9014621863169218</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1879527347874337</v>
+        <v>0.1933040356438198</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.02873622622284288</v>
+        <v>-0.00122171010377004</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.011145995562122</v>
+        <v>0.9987605421463093</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6242742931843106</v>
+        <v>0.6536965902346061</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7020651120911058</v>
+        <v>0.7555509759985224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.568761448984213</v>
+        <v>1.627221685177304</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6123273314971874</v>
+        <v>0.6032729828026516</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.563748866532454</v>
+        <v>0.5743199587592677</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.532203794130924</v>
+        <v>1.574463579127018</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.208240042602293</v>
+        <v>1.168387458615447</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8902566280596168</v>
+        <v>0.9468360382041444</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.440471515486452</v>
+        <v>2.573415299150385</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.504738814162499</v>
+        <v>1.494028077018853</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.719105900359694</v>
+        <v>1.722211512660029</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.767459873403224</v>
+        <v>2.839098389977377</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.228367547351706</v>
+        <v>1.256170878771577</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.236870682915388</v>
+        <v>1.262253528863905</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.456347007903813</v>
+        <v>2.551304515642682</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.548144171796256</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>5.77902749968984</v>
+        <v>5.779027499689842</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.602348118506001</v>
@@ -878,7 +878,7 @@
         <v>1.820617038180445</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>5.216136739722296</v>
+        <v>5.216136739722297</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.06654914592850134</v>
+        <v>0.1545524790291018</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2309259099525793</v>
+        <v>0.1437602921649544</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.49083615465016</v>
+        <v>3.455144922134761</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6748431090920236</v>
+        <v>0.9089027430991178</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.077421733497125</v>
+        <v>1.291155595741925</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.503790508767473</v>
+        <v>4.452014876345396</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7361412160612153</v>
+        <v>0.7701977325026744</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.015724264850555</v>
+        <v>1.044156310194663</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.311631796850482</v>
+        <v>4.326500821003002</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.053397838693601</v>
+        <v>2.033887865972545</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.148042323363536</v>
+        <v>2.156649088769828</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.948010579826144</v>
+        <v>5.879800174030186</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.674702251577676</v>
+        <v>3.64457467692336</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.81865292555301</v>
+        <v>4.027585936217274</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.180648589081668</v>
+        <v>7.1370077769948</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.362765756853235</v>
+        <v>2.447601818366212</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.700322897818729</v>
+        <v>2.694985586037245</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.249681866178844</v>
+        <v>6.096930279075315</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.8948512138507325</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>2.029465141812905</v>
+        <v>2.029465141812906</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.7062898354299403</v>
@@ -983,7 +983,7 @@
         <v>0.8024993404531502</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>2.299190991601447</v>
+        <v>2.299190991601448</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0347972566847239</v>
+        <v>0.05320193573280078</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06958493885997517</v>
+        <v>0.04420692557645245</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.515860307538622</v>
+        <v>1.510721333853662</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1861486302566294</v>
+        <v>0.250146821876981</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3015357662050445</v>
+        <v>0.3364163270423914</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.260488697999139</v>
+        <v>1.207390350786925</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.272397783020453</v>
+        <v>0.2894924796071742</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3730716797117485</v>
+        <v>0.3880864925299274</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.598969323294659</v>
+        <v>1.566600143429021</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.503089193188188</v>
+        <v>1.490378156895604</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.614033966240787</v>
+        <v>1.623808970178454</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.483498922394498</v>
+        <v>4.426374495397376</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.627083115577513</v>
+        <v>1.642478090027647</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.664108092637475</v>
+        <v>1.80435223872393</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.199036144729447</v>
+        <v>3.16907007133958</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.215692753444331</v>
+        <v>1.245269458117796</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.418076287603697</v>
+        <v>1.378715796878088</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.331774606702209</v>
+        <v>3.223666582805898</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>0.3651694818202819</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.668738161680051</v>
+        <v>2.668738161680052</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.562230157585039</v>
+        <v>-2.669980719279049</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.038633310129719</v>
+        <v>-2.98313173560625</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4677327381442792</v>
+        <v>-0.8123825646071784</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.744475412981617</v>
+        <v>-1.658004364789531</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.5016624563579789</v>
+        <v>-0.5042138095702392</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.634801446394994</v>
+        <v>1.622997592703003</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.575864168899304</v>
+        <v>-1.636777725967486</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.9955930327644474</v>
+        <v>-1.096741626487437</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.054189748643967</v>
+        <v>1.212211159472445</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.855855761034756</v>
+        <v>1.783141615510113</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5776123468745585</v>
+        <v>0.7810527910192768</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.834905197534851</v>
+        <v>3.790941511641918</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.5877944705805</v>
+        <v>2.651252351466634</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.241924051375881</v>
+        <v>4.140614254624226</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.696319555429179</v>
+        <v>5.776769727135514</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.455316344869596</v>
+        <v>1.26115065301833</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.768482477888169</v>
+        <v>1.729693471660386</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.311373429083186</v>
+        <v>4.172848921102572</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6891460147378394</v>
+        <v>-0.7044771930497585</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7952854693865359</v>
+        <v>-0.7642930131234142</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.165997624696661</v>
+        <v>-0.2415859926050414</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.551647254712623</v>
+        <v>-0.5706729557141682</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2312562174071308</v>
+        <v>-0.2091698995131387</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3558849435629045</v>
+        <v>0.3667470604014597</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5274890316271437</v>
+        <v>-0.5278688225806738</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3229563295981302</v>
+        <v>-0.354044701679895</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2708586758413763</v>
+        <v>0.3078366152826907</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.294578321132158</v>
+        <v>1.154011224319362</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4812355070830744</v>
+        <v>0.6969485963307304</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.48553624153334</v>
+        <v>2.412813346229735</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.015747402236018</v>
+        <v>1.929732390349629</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.013577190173403</v>
+        <v>2.786534174164257</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.947809515635089</v>
+        <v>4.58320904726367</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9054534651954511</v>
+        <v>0.6788184850387076</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.052357673630488</v>
+        <v>0.8853285458190706</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.375585111917385</v>
+        <v>2.250737390267383</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.6540021014458497</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.415970572679074</v>
+        <v>4.415970572679075</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.616162154038958</v>
@@ -1297,7 +1297,7 @@
         <v>3.97183767710373</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.269322092517856</v>
+        <v>7.269322092517854</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.131785509918412</v>
@@ -1306,7 +1306,7 @@
         <v>2.357042799637115</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.894486150779611</v>
+        <v>5.894486150779609</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6333694844766824</v>
+        <v>0.6819259054896772</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2314870537551103</v>
+        <v>-0.3926342432966108</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.323906929184119</v>
+        <v>3.318431327465548</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.442631586436368</v>
+        <v>3.316519831352369</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.817253385876699</v>
+        <v>2.802446504758548</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.037378264562347</v>
+        <v>6.150210832638858</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.308300021201765</v>
+        <v>2.337524044860645</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.496198411341342</v>
+        <v>1.530328355353798</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.170535686533309</v>
+        <v>5.083201437703313</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.610545034135674</v>
+        <v>2.705264795705838</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.616564030523368</v>
+        <v>1.533903333568507</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.446165800563302</v>
+        <v>5.500467132929137</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.003777234205681</v>
+        <v>5.786489361834249</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.290615546091393</v>
+        <v>5.308250494697017</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.441290817666031</v>
+        <v>8.354520038509637</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.960180974672531</v>
+        <v>4.042271687258089</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.147611335633903</v>
+        <v>3.174929372391929</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.76857579211127</v>
+        <v>6.718074582089158</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1616899370074003</v>
+        <v>0.1638064899714899</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06346719028181746</v>
+        <v>-0.0997858980732074</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8193151979805104</v>
+        <v>0.8189684597682725</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.6055521794049736</v>
+        <v>0.5840431569604231</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4944949741256751</v>
+        <v>0.4760572843419966</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.039317964954394</v>
+        <v>1.07186998093784</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4801683638393947</v>
+        <v>0.473416578577144</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3159136513649634</v>
+        <v>0.31770053443788</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.069787139655393</v>
+        <v>1.070208557406866</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8718634512161458</v>
+        <v>0.8675091670383481</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5425479350372063</v>
+        <v>0.5094164613031826</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.793909980937968</v>
+        <v>1.797141186665937</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.310241112449235</v>
+        <v>1.224564949055139</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.157121620610633</v>
+        <v>1.134103138498224</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.853695230204437</v>
+        <v>1.820312811222322</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9854254049856997</v>
+        <v>0.9928799277657927</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8080825353659876</v>
+        <v>0.8035317689101523</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.707451618411871</v>
+        <v>1.699774747037339</v>
       </c>
     </row>
     <row r="28">
